--- a/anextour parser/results/asmbl/dont_cut/qds3_res_assmbl_90-10.xlsx
+++ b/anextour parser/results/asmbl/dont_cut/qds3_res_assmbl_90-10.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>есть ли тур по лен области с посещением Петергофа и Кронштадта?</t>
+          <t>Подумываем о поездке с детьми по Ленинградской области. Есть ли варианты, включающие Петергоф и Кронштадт?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[np.int64(6), np.int64(125), np.int64(8), np.int64(126), np.int64(201), np.int64(6), np.int64(43), np.int64(174), np.int64(6), np.int64(34)]</t>
+          <t>[np.int64(125), np.int64(201), np.int64(44), np.int64(6), np.int64(7), np.int64(8), np.int64(121), np.int64(44), np.int64(185), np.int64(5)]</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -508,13 +508,13 @@
         <v>0.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Хотелось бы посмотреть Псков и Пушкинские горы. Есть ли такой тур?</t>
+          <t>Очень интересно посмотреть Псков и Пушкинские горы. Возможно ли это в рамках организованного тура?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,23 +535,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[np.int64(100), np.int64(105), np.int64(7), np.int64(107), np.int64(104), np.int64(36), np.int64(42), np.int64(43)]</t>
+          <t>[np.int64(100), np.int64(105), np.int64(7), np.int64(103), np.int64(104), np.int64(196)]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Что посмотреть в Карелии за 3 дня? Хочется Кивач, Марциальные воды и Петрозаводск.</t>
+          <t>Планируем короткую поездку в Карелию на три дня. Что посоветуете, чтобы успеть увидеть Кивач, Марциальные воды и Петрозаводск?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[np.int64(9), np.int64(156), np.int64(9), np.int64(156)]</t>
+          <t>[np.int64(156), np.int64(156), np.int64(9), np.int64(58), np.int64(9), np.int64(169), np.int64(170)]</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -636,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Хотелось бы посмотреть на Москву. Что можете предложить?</t>
+          <t>Давно мечтаю побывать в Москве. Что можете предложить для первого знакомства с городом?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -646,23 +646,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[np.int64(0), np.int64(125), np.int64(0), np.int64(1), np.int64(0), np.int64(112), np.int64(197), np.int64(111), np.int64(115)]</t>
+          <t>[np.int64(0), np.int64(0), np.int64(1), np.int64(1), np.int64(0), np.int64(223), np.int64(7), np.int64(224), np.int64(170), np.int64(168)]</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -673,7 +673,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Есть туры в Карелию, где можно посетить центр шунгита?</t>
+          <t xml:space="preserve">Насколько реально найти туры в Карелию, чтобы побывать в центре шунгита? </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[np.int64(156), np.int64(9), np.int64(156), np.int64(156), np.int64(58), np.int64(0), np.int64(99), np.int64(118), np.int64(46), np.int64(214)]</t>
+          <t>[np.int64(9), np.int64(156), np.int64(156), np.int64(225), np.int64(156), np.int64(155), np.int64(172), np.int64(30), np.int64(154)]</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -696,10 +696,10 @@
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8">
@@ -710,7 +710,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Хочу посмотреть на морских животных в Мурманске. Что можете подсказать?</t>
+          <t>Заинтересовалась морскими животными в районе Мурманска. Какие экскурсии или туры вы можете порекомендовать?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -720,23 +720,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[np.int64(189), np.int64(176), np.int64(176), np.int64(46), np.int64(189), np.int64(197), np.int64(3), np.int64(190), np.int64(170), np.int64(171)]</t>
+          <t>[np.int64(189), np.int64(176), np.int64(176), np.int64(189), np.int64(172), np.int64(174), np.int64(118), np.int64(214), np.int64(46), np.int64(213)]</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
@@ -784,7 +784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Покажите мне туры по Сахалину. Что обычно люди посещают в рамках этих туров?</t>
+          <t>Расскажите, пожалуйста, о ваших турах по Сахалину. Что обычно входит в обязательную программу для туристов?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -794,23 +794,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[np.int64(225), np.int64(56), np.int64(169), np.int64(224), np.int64(225), np.int64(30), np.int64(56), np.int64(5), np.int64(122)]</t>
+          <t>[np.int64(225), np.int64(169), np.int64(170), np.int64(168), np.int64(171), np.int64(108), np.int64(108), np.int64(90), np.int64(111), np.int64(114)]</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -821,7 +821,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>хочу посетить Сахалин, есть ли возможность посетить и Курильские острова в рамках одного тура?</t>
+          <t>Очень хочу посетить Сахалин, а если повезёт, то и Курилы! Реально ли это объединить в одном туре?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[np.int64(225), np.int64(56), np.int64(170), np.int64(224), np.int64(224), np.int64(5), np.int64(134), np.int64(121), np.int64(196), np.int64(5)]</t>
+          <t>[np.int64(170), np.int64(225), np.int64(56), np.int64(224), np.int64(171), np.int64(169), np.int64(121), np.int64(118), np.int64(46)]</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -841,13 +841,13 @@
         <v>0.25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="12">
@@ -858,7 +858,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ищу санаторий, чтобы подтянуть свое здоровье. Есть ли у вас предложения по Калининградской области?</t>
+          <t>Присматриваю санаторий для оздоровления. Что можете предложить в Калининградской области?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>что можно посетить в Калининграде, кроме самого города?</t>
+          <t>Помимо самого Калининграда, что стоит увидеть в области? Какие интересные места вы рекомендуете?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -905,23 +905,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[np.int64(128), np.int64(32), np.int64(34), np.int64(132), np.int64(21), np.int64(134), np.int64(1), np.int64(82)]</t>
+          <t>[np.int64(33), np.int64(32), np.int64(34), np.int64(128), np.int64(189), np.int64(106), np.int64(107), np.int64(0), np.int64(21)]</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="14">
@@ -932,7 +932,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Хочу посетить Великий Новгород. Ваши предложения?</t>
+          <t>В планах посещение Великого Новгорода. Какие у вас есть предложения для знакомства с этим городом?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[np.int64(110), np.int64(108), np.int64(102), np.int64(103), np.int64(197), np.int64(197), np.int64(116)]</t>
+          <t>[np.int64(110), np.int64(108), np.int64(50), np.int64(175), np.int64(51), np.int64(223), np.int64(191)]</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -952,13 +952,13 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="15">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Какие туры в Хакасию у вас есть, чтобы увидеть природу?</t>
+          <t>Хочу увидеть природу Хакасии! Какие у вас есть туры по этому региону?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1016,23 +1016,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[np.int64(147), np.int64(59), np.int64(59), np.int64(147), np.int64(45), np.int64(173), np.int64(189), np.int64(172), np.int64(36), np.int64(42)]</t>
+          <t>[np.int64(147), np.int64(59), np.int64(59), np.int64(147), np.int64(148), np.int64(47), np.int64(189), np.int64(36), np.int64(149), np.int64(42)]</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Что у вас есть по турам с посещением Байкала?</t>
+          <t>Какие варианты у вас есть для посещения Байкала? Что включают в себя такие туры?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1090,23 +1090,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[np.int64(56), np.int64(137), np.int64(122), np.int64(36), np.int64(49), np.int64(51), np.int64(126), np.int64(36), np.int64(42), np.int64(137)]</t>
+          <t>[np.int64(137), np.int64(56), np.int64(49), np.int64(122), np.int64(36), np.int64(120), np.int64(51), np.int64(50), np.int64(191), np.int64(175)]</t>
         </is>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Хочу погулять по Грозному. Что у вас есть?</t>
+          <t>Хочу погулять по Грозному. Что интересного вы можете мне предложить?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[np.int64(136), np.int64(135), np.int64(61), np.int64(84), np.int64(83), np.int64(126), np.int64(36), np.int64(42), np.int64(138), np.int64(2)]</t>
+          <t>[np.int64(20), np.int64(136), np.int64(135), np.int64(18), np.int64(36), np.int64(17), np.int64(19)]</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1140,10 +1140,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="20">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Интересует посещение курорта Домбай. На что можно посмотреть там дополнительно?</t>
+          <t xml:space="preserve"> Планирую поездку на курорт Домбай. Что интересного, кроме курорта, там можно посетить?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[np.int64(62), np.int64(165), np.int64(134), np.int64(187), np.int64(179), np.int64(84), np.int64(170), np.int64(6)]</t>
+          <t>[np.int64(165), np.int64(134), np.int64(187), np.int64(134), np.int64(62), np.int64(144), np.int64(179), np.int64(84)]</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1174,13 +1174,13 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="21">
